--- a/data1/odd.xlsx
+++ b/data1/odd.xlsx
@@ -1,34 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +65,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -199,6 +150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -233,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -267,20 +220,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -402,2531 +351,2570 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A502"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
+      <c r="A1" t="str">
+        <v>Odds</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
         <v>3.54</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="3">
+      <c r="A3" t="str">
         <v>1.19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="4">
+      <c r="A4" t="str">
         <v>2.58</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="5">
+      <c r="A5" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="6">
+      <c r="A6" t="str">
         <v>2.6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="7">
+      <c r="A7" t="str">
         <v>1.17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="8">
+      <c r="A8" t="str">
         <v>3.93</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="9">
+      <c r="A9" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="10">
+      <c r="A10" t="str">
         <v>1.26</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="11">
+      <c r="A11" t="str">
         <v>1.46</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="12">
+      <c r="A12" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="13">
+      <c r="A13" t="str">
         <v>2.86</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="14">
+      <c r="A14" t="str">
         <v>1.08</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="15">
+      <c r="A15" t="str">
         <v>7.18</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="16">
+      <c r="A16" t="str">
         <v>2.08</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="17">
+      <c r="A17" t="str">
         <v>2.46</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="18">
+      <c r="A18" t="str">
         <v>2.15</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="19">
+      <c r="A19" t="str">
         <v>33.12</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="20">
+      <c r="A20" t="str">
         <v>3.53</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="21">
+      <c r="A21" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="22">
+      <c r="A22" t="str">
         <v>1.37</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="23">
+      <c r="A23" t="str">
         <v>1.6</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="24">
+      <c r="A24" t="str">
         <v>34.17</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="25">
+      <c r="A25" t="str">
         <v>1.05</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="26">
+      <c r="A26" t="str">
         <v>1.02</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="27">
+      <c r="A27" t="str">
         <v>12.65</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="28">
+      <c r="A28" t="str">
         <v>1.42</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="29">
+      <c r="A29" t="str">
         <v>3.07</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="30">
+      <c r="A30" t="str">
         <v>1.17</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="31">
+      <c r="A31" t="str">
         <v>1.56</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="32">
+      <c r="A32" t="str">
         <v>1.58</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="33">
+      <c r="A33" t="str">
         <v>3.84</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="34">
+      <c r="A34" t="str">
         <v>7</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="35">
+      <c r="A35" t="str">
         <v>1.11</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="36">
+      <c r="A36" t="str">
         <v>1.87</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="37">
+      <c r="A37" t="str">
         <v>1.13</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="38">
+      <c r="A38" t="str">
         <v>1.32</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="39">
+      <c r="A39" t="str">
         <v>2.62</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="40">
+      <c r="A40" t="str">
         <v>4.01</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="41">
+      <c r="A41" t="str">
         <v>13.3</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="42">
+      <c r="A42" t="str">
         <v>51.56</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="43">
+      <c r="A43" t="str">
         <v>1.53</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="44">
+      <c r="A44" t="str">
         <v>3.85</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="45">
+      <c r="A45" t="str">
         <v>74.55</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="46">
+      <c r="A46" t="str">
         <v>3.95</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="47">
+      <c r="A47" t="str">
         <v>4.44</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="48">
+      <c r="A48" t="str">
         <v>2.05</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="49">
+      <c r="A49" t="str">
         <v>1.23</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="50">
+      <c r="A50" t="str">
         <v>1.19</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="51">
+      <c r="A51" t="str">
         <v>9.35</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="52">
+      <c r="A52" t="str">
         <v>1.17</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="53">
+      <c r="A53" t="str">
         <v>2</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="54">
+      <c r="A54" t="str">
         <v>1.74</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="55">
+      <c r="A55" t="str">
         <v>2.48</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="56">
+      <c r="A56" t="str">
         <v>403.85</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="57">
+      <c r="A57" t="str">
         <v>2.4</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="58">
+      <c r="A58" t="str">
         <v>1.62</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="59">
+      <c r="A59" t="str">
         <v>1.2</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="60">
+      <c r="A60" t="str">
         <v>3.64</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="61">
+      <c r="A61" t="str">
         <v>1.58</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="62">
+      <c r="A62" t="str">
         <v>1.16</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="63">
+      <c r="A63" t="str">
         <v>2.38</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="64">
+      <c r="A64" t="str">
         <v>1.22</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="65">
+      <c r="A65" t="str">
         <v>2.48</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="66">
+      <c r="A66" t="str">
         <v>1.55</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="67">
+      <c r="A67" t="str">
         <v>4.59</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="68">
+      <c r="A68" t="str">
         <v>3.31</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="69">
+      <c r="A69" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="70">
+      <c r="A70" t="str">
         <v>2.46</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="71">
+      <c r="A71" t="str">
         <v>1.55</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="72">
+      <c r="A72" t="str">
         <v>1.05</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="73">
+      <c r="A73" t="str">
         <v>2.7</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="74">
+      <c r="A74" t="str">
         <v>8.68</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="75">
+      <c r="A75" t="str">
         <v>12.44</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="76">
+      <c r="A76" t="str">
         <v>1.22</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="77">
+      <c r="A77" t="str">
         <v>2.97</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="78">
+      <c r="A78" t="str">
         <v>5.35</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="79">
+      <c r="A79" t="str">
         <v>1.11</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="80">
+      <c r="A80" t="str">
         <v>1.73</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="81">
+      <c r="A81" t="str">
         <v>1.64</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="82">
+      <c r="A82" t="str">
         <v>1.35</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="83">
+      <c r="A83" t="str">
         <v>1.38</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="84">
+      <c r="A84" t="str">
         <v>3.16</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="85">
+      <c r="A85" t="str">
         <v>1.63</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="86">
+      <c r="A86" t="str">
         <v>1.58</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="87">
+      <c r="A87" t="str">
         <v>1.23</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="88">
+      <c r="A88" t="str">
         <v>1.25</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="89">
+      <c r="A89" t="str">
         <v>1.5</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="90">
+      <c r="A90" t="str">
         <v>1.7</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="91">
+      <c r="A91" t="str">
         <v>1.58</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="92">
+      <c r="A92" t="str">
         <v>1.71</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="93">
+      <c r="A93" t="str">
         <v>1.12</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="94">
+      <c r="A94" t="str">
         <v>3.9</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="95">
+      <c r="A95" t="str">
         <v>2.32</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="96">
+      <c r="A96" t="str">
         <v>1.39</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="97">
+      <c r="A97" t="str">
         <v>2.81</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="98">
+      <c r="A98" t="str">
         <v>2.99</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="99">
+      <c r="A99" t="str">
         <v>1.58</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="100">
+      <c r="A100" t="str">
         <v>9.93</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="101">
+      <c r="A101" t="str">
         <v>1.78</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="102">
+      <c r="A102" t="str">
         <v>3.82</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="103">
+      <c r="A103" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="104">
+      <c r="A104" t="str">
         <v>1.2</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="105">
+      <c r="A105" t="str">
         <v>13.99</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="106">
+      <c r="A106" t="str">
         <v>1.27</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="107">
+      <c r="A107" t="str">
         <v>1.15</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="108">
+      <c r="A108" t="str">
         <v>3.89</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="109">
+      <c r="A109" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="110">
+      <c r="A110" t="str">
         <v>11.11</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="111">
+      <c r="A111" t="str">
         <v>83.11</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="112">
+      <c r="A112" t="str">
         <v>1.12</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="113">
+      <c r="A113" t="str">
         <v>39.58</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="114">
+      <c r="A114" t="str">
         <v>14.71</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="115">
+      <c r="A115" t="str">
         <v>1.18</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="116">
+      <c r="A116" t="str">
         <v>1.27</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="117">
+      <c r="A117" t="str">
         <v>1.69</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="118">
+      <c r="A118" t="str">
         <v>2.6</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="119">
+      <c r="A119" t="str">
         <v>1.05</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="120">
+      <c r="A120" t="str">
         <v>1.35</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="121">
+      <c r="A121" t="str">
         <v>2.11</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="122">
+      <c r="A122" t="str">
         <v>36.26</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="123">
+      <c r="A123" t="str">
         <v>1.62</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="124">
+      <c r="A124" t="str">
         <v>3.37</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="125">
+      <c r="A125" t="str">
         <v>5.8</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="126">
+      <c r="A126" t="str">
         <v>1.04</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="127">
+      <c r="A127" t="str">
         <v>1.97</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="128">
+      <c r="A128" t="str">
         <v>6.2</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
     <row r="129">
-      <c r="A129" t="n">
+      <c r="A129" t="str">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
         <v>19.08</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
+    <row r="131">
+      <c r="A131" t="str">
         <v>1.69</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
+    <row r="132">
+      <c r="A132" t="str">
         <v>1.31</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>87.76000000000001</v>
-      </c>
-    </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" t="str">
+        <v>87.76</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
         <v>1.09</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
+    <row r="135">
+      <c r="A135" t="str">
         <v>2.58</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
+    <row r="136">
+      <c r="A136" t="str">
         <v>2.41</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
+    <row r="137">
+      <c r="A137" t="str">
         <v>1.22</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
+    <row r="138">
+      <c r="A138" t="str">
         <v>2.27</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
+    <row r="139">
+      <c r="A139" t="str">
         <v>1.36</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
+    <row r="140">
+      <c r="A140" t="str">
         <v>3.76</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
+    <row r="141">
+      <c r="A141" t="str">
         <v>1.97</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
+    <row r="142">
+      <c r="A142" t="str">
         <v>1.79</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
+    <row r="143">
+      <c r="A143" t="str">
         <v>14.63</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
+    <row r="144">
+      <c r="A144" t="str">
         <v>4.81</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
+    <row r="145">
+      <c r="A145" t="str">
         <v>1.2</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
+    <row r="146">
+      <c r="A146" t="str">
         <v>1.26</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="n">
+    <row r="147">
+      <c r="A147" t="str">
         <v>24.64</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="n">
+    <row r="148">
+      <c r="A148" t="str">
         <v>18.21</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="n">
+    <row r="149">
+      <c r="A149" t="str">
         <v>3.95</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
+    <row r="150">
+      <c r="A150" t="str">
         <v>1.41</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="n">
+    <row r="151">
+      <c r="A151" t="str">
         <v>1.79</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="n">
+    <row r="152">
+      <c r="A152" t="str">
         <v>2.23</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="n">
+    <row r="153">
+      <c r="A153" t="str">
         <v>2.38</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="n">
+    <row r="154">
+      <c r="A154" t="str">
         <v>4.5</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="n">
+    <row r="155">
+      <c r="A155" t="str">
         <v>5.72</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="n">
+    <row r="156">
+      <c r="A156" t="str">
         <v>1.14</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="n">
+    <row r="157">
+      <c r="A157" t="str">
         <v>1.34</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="n">
+    <row r="158">
+      <c r="A158" t="str">
         <v>1.13</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
+    <row r="159">
+      <c r="A159" t="str">
         <v>2.11</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="n">
+    <row r="160">
+      <c r="A160" t="str">
         <v>1.45</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="n">
+    <row r="161">
+      <c r="A161" t="str">
         <v>1.57</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="n">
+    <row r="162">
+      <c r="A162" t="str">
         <v>17.74</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="n">
+    <row r="163">
+      <c r="A163" t="str">
         <v>1.38</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="n">
+    <row r="164">
+      <c r="A164" t="str">
         <v>9.41</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="n">
+    <row r="165">
+      <c r="A165" t="str">
         <v>7.42</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="n">
+    <row r="166">
+      <c r="A166" t="str">
         <v>2.29</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="n">
+    <row r="167">
+      <c r="A167" t="str">
         <v>1.37</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="n">
+    <row r="168">
+      <c r="A168" t="str">
         <v>23.79</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="n">
+    <row r="169">
+      <c r="A169" t="str">
         <v>3.5</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="n">
+    <row r="170">
+      <c r="A170" t="str">
         <v>1.16</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="n">
+    <row r="171">
+      <c r="A171" t="str">
         <v>1.42</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="n">
+    <row r="172">
+      <c r="A172" t="str">
         <v>3.14</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="n">
+    <row r="173">
+      <c r="A173" t="str">
         <v>1.61</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>8.369999999999999</v>
-      </c>
-    </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" t="str">
+        <v>8.37</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
         <v>1.23</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="n">
+    <row r="176">
+      <c r="A176" t="str">
         <v>4.32</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="n">
+    <row r="177">
+      <c r="A177" t="str">
         <v>1.33</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="n">
+    <row r="178">
+      <c r="A178" t="str">
         <v>1.25</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="n">
+    <row r="179">
+      <c r="A179" t="str">
         <v>1.46</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="n">
+    <row r="180">
+      <c r="A180" t="str">
         <v>2.4</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="n">
+    <row r="181">
+      <c r="A181" t="str">
         <v>8.4</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="n">
+    <row r="182">
+      <c r="A182" t="str">
         <v>4</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="n">
+    <row r="183">
+      <c r="A183" t="str">
         <v>1.68</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="n">
+    <row r="184">
+      <c r="A184" t="str">
         <v>2.06</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="n">
+    <row r="185">
+      <c r="A185" t="str">
         <v>1.86</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="n">
+    <row r="186">
+      <c r="A186" t="str">
         <v>10.5</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="n">
+    <row r="187">
+      <c r="A187" t="str">
         <v>4.51</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="n">
+    <row r="188">
+      <c r="A188" t="str">
         <v>7.47</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="n">
+    <row r="189">
+      <c r="A189" t="str">
         <v>3.96</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="n">
+    <row r="190">
+      <c r="A190" t="str">
         <v>1.3</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="n">
+    <row r="191">
+      <c r="A191" t="str">
         <v>7.86</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="n">
+    <row r="192">
+      <c r="A192" t="str">
         <v>2.32</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="n">
+    <row r="193">
+      <c r="A193" t="str">
         <v>1.75</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="n">
+    <row r="194">
+      <c r="A194" t="str">
         <v>1.09</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="n">
+    <row r="195">
+      <c r="A195" t="str">
         <v>1.57</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="n">
+    <row r="196">
+      <c r="A196" t="str">
         <v>1.46</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="n">
+    <row r="197">
+      <c r="A197" t="str">
         <v>2.15</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="n">
+    <row r="198">
+      <c r="A198" t="str">
         <v>1.26</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="n">
+    <row r="199">
+      <c r="A199" t="str">
         <v>1.39</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="n">
+    <row r="200">
+      <c r="A200" t="str">
         <v>16.17</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="n">
+    <row r="201">
+      <c r="A201" t="str">
         <v>6.92</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="n">
+    <row r="202">
+      <c r="A202" t="str">
         <v>31.1</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="n">
+    <row r="203">
+      <c r="A203" t="str">
         <v>1.52</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="n">
+    <row r="204">
+      <c r="A204" t="str">
         <v>3.36</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="n">
+    <row r="205">
+      <c r="A205" t="str">
         <v>1.15</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="n">
+    <row r="206">
+      <c r="A206" t="str">
         <v>1.78</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="n">
+    <row r="207">
+      <c r="A207" t="str">
         <v>2.46</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="n">
+    <row r="208">
+      <c r="A208" t="str">
         <v>113.32</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="n">
+    <row r="209">
+      <c r="A209" t="str">
         <v>7.07</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="n">
+    <row r="210">
+      <c r="A210" t="str">
         <v>3.07</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="n">
+    <row r="211">
+      <c r="A211" t="str">
         <v>3.91</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="n">
+    <row r="212">
+      <c r="A212" t="str">
         <v>76.45</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="n">
+    <row r="213">
+      <c r="A213" t="str">
         <v>3.77</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="n">
+    <row r="214">
+      <c r="A214" t="str">
         <v>4.92</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="n">
+    <row r="215">
+      <c r="A215" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="n">
+    <row r="216">
+      <c r="A216" t="str">
         <v>2.53</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="n">
+    <row r="217">
+      <c r="A217" t="str">
         <v>404.32</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="n">
+    <row r="218">
+      <c r="A218" t="str">
         <v>1.81</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="n">
+    <row r="219">
+      <c r="A219" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="n">
+    <row r="220">
+      <c r="A220" t="str">
         <v>1.05</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="n">
+    <row r="221">
+      <c r="A221" t="str">
         <v>2.23</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="n">
+    <row r="222">
+      <c r="A222" t="str">
         <v>2.29</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="n">
+    <row r="223">
+      <c r="A223" t="str">
         <v>1.54</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="n">
+    <row r="224">
+      <c r="A224" t="str">
         <v>1.9</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="n">
+    <row r="225">
+      <c r="A225" t="str">
         <v>1.43</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="n">
+    <row r="226">
+      <c r="A226" t="str">
         <v>1.47</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="n">
+    <row r="227">
+      <c r="A227" t="str">
         <v>9.76</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="n">
+    <row r="228">
+      <c r="A228" t="str">
         <v>6.13</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="n">
+    <row r="229">
+      <c r="A229" t="str">
         <v>40.94</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="n">
+    <row r="230">
+      <c r="A230" t="str">
         <v>7.61</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="n">
+    <row r="231">
+      <c r="A231" t="str">
         <v>1.47</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="n">
+    <row r="232">
+      <c r="A232" t="str">
         <v>1.63</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="n">
+    <row r="233">
+      <c r="A233" t="str">
         <v>2.95</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="n">
+    <row r="234">
+      <c r="A234" t="str">
         <v>1.27</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="n">
+    <row r="235">
+      <c r="A235" t="str">
         <v>9.15</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="n">
+    <row r="236">
+      <c r="A236" t="str">
         <v>1.3</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="n">
+    <row r="237">
+      <c r="A237" t="str">
         <v>2.68</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="n">
+    <row r="238">
+      <c r="A238" t="str">
         <v>20.71</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="n">
+    <row r="239">
+      <c r="A239" t="str">
         <v>9.25</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="n">
+    <row r="240">
+      <c r="A240" t="str">
         <v>10.51</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="n">
+    <row r="241">
+      <c r="A241" t="str">
         <v>1.28</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="n">
+    <row r="242">
+      <c r="A242" t="str">
         <v>1.39</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="n">
+    <row r="243">
+      <c r="A243" t="str">
         <v>1.09</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="n">
+    <row r="244">
+      <c r="A244" t="str">
         <v>20.35</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="n">
+    <row r="245">
+      <c r="A245" t="str">
         <v>1.74</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="n">
+    <row r="246">
+      <c r="A246" t="str">
         <v>1.2</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="n">
+    <row r="247">
+      <c r="A247" t="str">
         <v>3.42</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="n">
+    <row r="248">
+      <c r="A248" t="str">
         <v>1.62</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="n">
+    <row r="249">
+      <c r="A249" t="str">
         <v>3.12</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="n">
+    <row r="250">
+      <c r="A250" t="str">
         <v>2.47</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="n">
+    <row r="251">
+      <c r="A251" t="str">
         <v>1.38</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="n">
+    <row r="252">
+      <c r="A252" t="str">
         <v>6.53</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="n">
+    <row r="253">
+      <c r="A253" t="str">
         <v>1.23</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="n">
+    <row r="254">
+      <c r="A254" t="str">
         <v>1.75</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="n">
+    <row r="255">
+      <c r="A255" t="str">
         <v>132.99</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="n">
+    <row r="256">
+      <c r="A256" t="str">
         <v>1.95</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="n">
+    <row r="257">
+      <c r="A257" t="str">
         <v>3.92</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="n">
+    <row r="258">
+      <c r="A258" t="str">
         <v>5.85</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="n">
+    <row r="259">
+      <c r="A259" t="str">
         <v>1.4</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="n">
+    <row r="260">
+      <c r="A260" t="str">
         <v>15.48</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="n">
+    <row r="261">
+      <c r="A261" t="str">
         <v>3.44</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="n">
+    <row r="262">
+      <c r="A262" t="str">
         <v>1.25</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" t="n">
+    <row r="263">
+      <c r="A263" t="str">
         <v>2.48</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" t="n">
+    <row r="264">
+      <c r="A264" t="str">
         <v>1.62</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" t="n">
+    <row r="265">
+      <c r="A265" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" t="n">
+    <row r="266">
+      <c r="A266" t="str">
         <v>1.11</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="n">
+    <row r="267">
+      <c r="A267" t="str">
         <v>1.36</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="n">
+    <row r="268">
+      <c r="A268" t="str">
         <v>1.36</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="n">
+    <row r="269">
+      <c r="A269" t="str">
         <v>2.64</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="n">
+    <row r="270">
+      <c r="A270" t="str">
         <v>1.2</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="n">
+    <row r="271">
+      <c r="A271" t="str">
         <v>1.02</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="n">
+    <row r="272">
+      <c r="A272" t="str">
         <v>4.85</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" t="n">
+    <row r="273">
+      <c r="A273" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" t="n">
+    <row r="274">
+      <c r="A274" t="str">
         <v>2.8</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="n">
+    <row r="275">
+      <c r="A275" t="str">
         <v>10.62</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="n">
+    <row r="276">
+      <c r="A276" t="str">
         <v>1.35</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="n">
+    <row r="277">
+      <c r="A277" t="str">
         <v>1.83</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="n">
+    <row r="278">
+      <c r="A278" t="str">
         <v>1.01</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="n">
+    <row r="279">
+      <c r="A279" t="str">
         <v>1.07</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" t="n">
+    <row r="280">
+      <c r="A280" t="str">
         <v>2.29</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="n">
+    <row r="281">
+      <c r="A281" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="n">
+    <row r="282">
+      <c r="A282" t="str">
         <v>2.86</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="n">
+    <row r="283">
+      <c r="A283" t="str">
         <v>6.95</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" t="n">
+    <row r="284">
+      <c r="A284" t="str">
         <v>2.77</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="n">
+    <row r="285">
+      <c r="A285" t="str">
         <v>2.66</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" t="n">
+    <row r="286">
+      <c r="A286" t="str">
         <v>6.7</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" t="n">
+    <row r="287">
+      <c r="A287" t="str">
         <v>10</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" t="n">
+    <row r="288">
+      <c r="A288" t="str">
         <v>1.13</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" t="n">
+    <row r="289">
+      <c r="A289" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" t="n">
+    <row r="290">
+      <c r="A290" t="str">
         <v>1.35</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" t="n">
+    <row r="291">
+      <c r="A291" t="str">
         <v>3.54</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" t="n">
+    <row r="292">
+      <c r="A292" t="str">
         <v>1.42</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="n">
+    <row r="293">
+      <c r="A293" t="str">
         <v>12.67</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" t="n">
+    <row r="294">
+      <c r="A294" t="str">
         <v>1.08</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" t="n">
+    <row r="295">
+      <c r="A295" t="str">
         <v>1.7</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="n">
-        <v>9.859999999999999</v>
-      </c>
-    </row>
     <row r="296">
-      <c r="A296" t="n">
+      <c r="A296" t="str">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
         <v>1.38</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" t="n">
+    <row r="298">
+      <c r="A298" t="str">
         <v>2.92</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" t="n">
+    <row r="299">
+      <c r="A299" t="str">
         <v>1.85</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" t="n">
+    <row r="300">
+      <c r="A300" t="str">
         <v>4.05</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" t="n">
+    <row r="301">
+      <c r="A301" t="str">
         <v>1.23</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" t="n">
+    <row r="302">
+      <c r="A302" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" t="n">
+    <row r="303">
+      <c r="A303" t="str">
         <v>2.3</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" t="n">
+    <row r="304">
+      <c r="A304" t="str">
         <v>1.55</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" t="n">
+    <row r="305">
+      <c r="A305" t="str">
         <v>6.67</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" t="n">
+    <row r="306">
+      <c r="A306" t="str">
         <v>1.6</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" t="n">
+    <row r="307">
+      <c r="A307" t="str">
         <v>1.13</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" t="n">
+    <row r="308">
+      <c r="A308" t="str">
         <v>2.53</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" t="n">
+    <row r="309">
+      <c r="A309" t="str">
         <v>122.15</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" t="n">
+    <row r="310">
+      <c r="A310" t="str">
         <v>1.36</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" t="n">
+    <row r="311">
+      <c r="A311" t="str">
         <v>2.65</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" t="n">
+    <row r="312">
+      <c r="A312" t="str">
         <v>1.2</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" t="n">
+    <row r="313">
+      <c r="A313" t="str">
         <v>11.04</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" t="n">
+    <row r="314">
+      <c r="A314" t="str">
         <v>26.18</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" t="n">
+    <row r="315">
+      <c r="A315" t="str">
         <v>4.57</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" t="n">
+    <row r="316">
+      <c r="A316" t="str">
         <v>2.08</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" t="n">
+    <row r="317">
+      <c r="A317" t="str">
         <v>2.11</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" t="n">
+    <row r="318">
+      <c r="A318" t="str">
         <v>1.31</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" t="n">
+    <row r="319">
+      <c r="A319" t="str">
         <v>1.06</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" t="n">
+    <row r="320">
+      <c r="A320" t="str">
         <v>3.72</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" t="n">
+    <row r="321">
+      <c r="A321" t="str">
         <v>2.43</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" t="n">
+    <row r="322">
+      <c r="A322" t="str">
         <v>4.19</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" t="n">
+    <row r="323">
+      <c r="A323" t="str">
         <v>2.03</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" t="n">
+    <row r="324">
+      <c r="A324" t="str">
         <v>2.06</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" t="n">
+    <row r="325">
+      <c r="A325" t="str">
         <v>1.53</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" t="n">
+    <row r="326">
+      <c r="A326" t="str">
         <v>1.33</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" t="n">
+    <row r="327">
+      <c r="A327" t="str">
         <v>1.48</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" t="n">
+    <row r="328">
+      <c r="A328" t="str">
         <v>1.08</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" t="n">
+    <row r="329">
+      <c r="A329" t="str">
         <v>2.05</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" t="n">
+    <row r="330">
+      <c r="A330" t="str">
         <v>2.33</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" t="n">
+    <row r="331">
+      <c r="A331" t="str">
         <v>1.42</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" t="n">
+    <row r="332">
+      <c r="A332" t="str">
         <v>4.52</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" t="n">
+    <row r="333">
+      <c r="A333" t="str">
         <v>1.57</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" t="n">
+    <row r="334">
+      <c r="A334" t="str">
         <v>1.48</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" t="n">
+    <row r="335">
+      <c r="A335" t="str">
         <v>2.15</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" t="n">
+    <row r="336">
+      <c r="A336" t="str">
         <v>1.07</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" t="n">
+    <row r="337">
+      <c r="A337" t="str">
         <v>1.42</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" t="n">
+    <row r="338">
+      <c r="A338" t="str">
         <v>15.8</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" t="n">
+    <row r="339">
+      <c r="A339" t="str">
         <v>1.19</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" t="n">
+    <row r="340">
+      <c r="A340" t="str">
         <v>1.36</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" t="n">
+    <row r="341">
+      <c r="A341" t="str">
         <v>4.38</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" t="n">
+    <row r="342">
+      <c r="A342" t="str">
         <v>1.14</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" t="n">
+    <row r="343">
+      <c r="A343" t="str">
         <v>2.02</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" t="n">
+    <row r="344">
+      <c r="A344" t="str">
         <v>6.74</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" t="n">
+    <row r="345">
+      <c r="A345" t="str">
         <v>1.22</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" t="n">
+    <row r="346">
+      <c r="A346" t="str">
         <v>3.84</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" t="n">
+    <row r="347">
+      <c r="A347" t="str">
         <v>1.07</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" t="n">
+    <row r="348">
+      <c r="A348" t="str">
         <v>1.45</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" t="n">
+    <row r="349">
+      <c r="A349" t="str">
         <v>16.2</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" t="n">
+    <row r="350">
+      <c r="A350" t="str">
         <v>60.3</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" t="n">
+    <row r="351">
+      <c r="A351" t="str">
         <v>5.35</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" t="n">
+    <row r="352">
+      <c r="A352" t="str">
         <v>6.17</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" t="n">
+    <row r="353">
+      <c r="A353" t="str">
         <v>1.69</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" t="n">
+    <row r="354">
+      <c r="A354" t="str">
         <v>25.58</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" t="n">
+    <row r="355">
+      <c r="A355" t="str">
         <v>3.75</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" t="n">
+    <row r="356">
+      <c r="A356" t="str">
         <v>1.51</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" t="n">
+    <row r="357">
+      <c r="A357" t="str">
         <v>1.13</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" t="n">
+    <row r="358">
+      <c r="A358" t="str">
         <v>4.12</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" t="n">
+    <row r="359">
+      <c r="A359" t="str">
         <v>2.57</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" t="n">
+    <row r="360">
+      <c r="A360" t="str">
         <v>14.04</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" t="n">
+    <row r="361">
+      <c r="A361" t="str">
         <v>1.11</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" t="n">
+    <row r="362">
+      <c r="A362" t="str">
         <v>5.43</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" t="n">
+    <row r="363">
+      <c r="A363" t="str">
         <v>1.7</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" t="n">
+    <row r="364">
+      <c r="A364" t="str">
         <v>3.02</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" t="n">
+    <row r="365">
+      <c r="A365" t="str">
         <v>2.52</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" t="n">
+    <row r="366">
+      <c r="A366" t="str">
         <v>2.26</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" t="n">
+    <row r="367">
+      <c r="A367" t="str">
         <v>2.65</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" t="n">
+    <row r="368">
+      <c r="A368" t="str">
         <v>1.91</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" t="n">
+    <row r="369">
+      <c r="A369" t="str">
         <v>1.85</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" t="n">
+    <row r="370">
+      <c r="A370" t="str">
         <v>2.58</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" t="n">
+    <row r="371">
+      <c r="A371" t="str">
         <v>1.04</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" t="n">
+    <row r="372">
+      <c r="A372" t="str">
         <v>1.72</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" t="n">
+    <row r="373">
+      <c r="A373" t="str">
         <v>810.9</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" t="n">
+    <row r="374">
+      <c r="A374" t="str">
         <v>2.74</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" t="n">
+    <row r="375">
+      <c r="A375" t="str">
         <v>57.29</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" t="n">
+    <row r="376">
+      <c r="A376" t="str">
         <v>1.21</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" t="n">
+    <row r="377">
+      <c r="A377" t="str">
         <v>1.15</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" t="n">
+    <row r="378">
+      <c r="A378" t="str">
         <v>1.17</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" t="n">
+    <row r="379">
+      <c r="A379" t="str">
         <v>2.88</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" t="n">
+    <row r="380">
+      <c r="A380" t="str">
         <v>1.29</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" t="n">
+    <row r="381">
+      <c r="A381" t="str">
         <v>1.59</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" t="n">
+    <row r="382">
+      <c r="A382" t="str">
         <v>9.26</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" t="n">
+    <row r="383">
+      <c r="A383" t="str">
         <v>4.79</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" t="n">
+    <row r="384">
+      <c r="A384" t="str">
         <v>12.09</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" t="n">
+    <row r="385">
+      <c r="A385" t="str">
         <v>4.14</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" t="n">
+    <row r="386">
+      <c r="A386" t="str">
         <v>3.6</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" t="n">
+    <row r="387">
+      <c r="A387" t="str">
         <v>1.04</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" t="n">
+    <row r="388">
+      <c r="A388" t="str">
         <v>3.27</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" t="n">
+    <row r="389">
+      <c r="A389" t="str">
         <v>1.06</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" t="n">
+    <row r="390">
+      <c r="A390" t="str">
         <v>1.16</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" t="n">
+    <row r="391">
+      <c r="A391" t="str">
         <v>56.57</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" t="n">
+    <row r="392">
+      <c r="A392" t="str">
         <v>2.44</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" t="n">
+    <row r="393">
+      <c r="A393" t="str">
         <v>1.2</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" t="n">
+    <row r="394">
+      <c r="A394" t="str">
         <v>1.09</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" t="n">
+    <row r="395">
+      <c r="A395" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" t="n">
+    <row r="396">
+      <c r="A396" t="str">
         <v>1.45</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" t="n">
+    <row r="397">
+      <c r="A397" t="str">
         <v>70.3</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" t="n">
+    <row r="398">
+      <c r="A398" t="str">
         <v>11.16</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" t="n">
+    <row r="399">
+      <c r="A399" t="str">
         <v>2.76</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" t="n">
+    <row r="400">
+      <c r="A400" t="str">
         <v>16.64</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" t="n">
+    <row r="401">
+      <c r="A401" t="str">
         <v>3.91</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" t="n">
+    <row r="402">
+      <c r="A402" t="str">
         <v>14.78</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" t="n">
+    <row r="403">
+      <c r="A403" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" t="n">
+    <row r="404">
+      <c r="A404" t="str">
         <v>33.52</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" t="n">
+    <row r="405">
+      <c r="A405" t="str">
         <v>5.89</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" t="n">
+    <row r="406">
+      <c r="A406" t="str">
         <v>1.12</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" t="n">
+    <row r="407">
+      <c r="A407" t="str">
         <v>1.49</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" t="n">
+    <row r="408">
+      <c r="A408" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" t="n">
+    <row r="409">
+      <c r="A409" t="str">
         <v>1.4</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" t="n">
+    <row r="410">
+      <c r="A410" t="str">
         <v>1.4</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" t="n">
+    <row r="411">
+      <c r="A411" t="str">
         <v>2.36</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" t="n">
+    <row r="412">
+      <c r="A412" t="str">
         <v>3.02</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" t="n">
+    <row r="413">
+      <c r="A413" t="str">
         <v>2.26</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" t="n">
+    <row r="414">
+      <c r="A414" t="str">
         <v>1.11</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" t="n">
+    <row r="415">
+      <c r="A415" t="str">
         <v>4.2</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" t="n">
+    <row r="416">
+      <c r="A416" t="str">
         <v>10.65</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" t="n">
+    <row r="417">
+      <c r="A417" t="str">
         <v>2.17</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" t="n">
+    <row r="418">
+      <c r="A418" t="str">
         <v>1.04</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" t="n">
+    <row r="419">
+      <c r="A419" t="str">
         <v>1.11</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" t="n">
+    <row r="420">
+      <c r="A420" t="str">
         <v>1.41</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" t="n">
+    <row r="421">
+      <c r="A421" t="str">
         <v>1.43</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" t="n">
+    <row r="422">
+      <c r="A422" t="str">
         <v>1.33</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" t="n">
+    <row r="423">
+      <c r="A423" t="str">
         <v>2.95</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" t="n">
+    <row r="424">
+      <c r="A424" t="str">
         <v>3.07</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" t="n">
+    <row r="425">
+      <c r="A425" t="str">
         <v>1.09</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" t="n">
+    <row r="426">
+      <c r="A426" t="str">
         <v>2.31</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" t="n">
+    <row r="427">
+      <c r="A427" t="str">
         <v>2.32</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" t="n">
+    <row r="428">
+      <c r="A428" t="str">
         <v>2.02</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" t="n">
+    <row r="429">
+      <c r="A429" t="str">
         <v>3.15</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" t="n">
+    <row r="430">
+      <c r="A430" t="str">
         <v>1.15</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" t="n">
+    <row r="431">
+      <c r="A431" t="str">
         <v>1.68</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" t="n">
+    <row r="432">
+      <c r="A432" t="str">
         <v>5.49</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" t="n">
+    <row r="433">
+      <c r="A433" t="str">
         <v>86.92</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" t="n">
+    <row r="434">
+      <c r="A434" t="str">
         <v>5.19</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" t="n">
+    <row r="435">
+      <c r="A435" t="str">
         <v>1.68</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" t="n">
+    <row r="436">
+      <c r="A436" t="str">
         <v>5.42</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" t="n">
+    <row r="437">
+      <c r="A437" t="str">
         <v>2.13</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" t="n">
+    <row r="438">
+      <c r="A438" t="str">
         <v>10.81</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" t="n">
+    <row r="439">
+      <c r="A439" t="str">
         <v>1</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" t="n">
+    <row r="440">
+      <c r="A440" t="str">
         <v>1.06</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" t="n">
+    <row r="441">
+      <c r="A441" t="str">
         <v>44.9</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" t="n">
+    <row r="442">
+      <c r="A442" t="str">
         <v>2.32</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" t="n">
+    <row r="443">
+      <c r="A443" t="str">
         <v>1.16</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" t="n">
+    <row r="444">
+      <c r="A444" t="str">
         <v>1.13</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" t="n">
+    <row r="445">
+      <c r="A445" t="str">
         <v>1.03</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" t="n">
+    <row r="446">
+      <c r="A446" t="str">
         <v>1.07</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" t="n">
+    <row r="447">
+      <c r="A447" t="str">
         <v>4.33</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" t="n">
+    <row r="448">
+      <c r="A448" t="str">
         <v>1.71</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" t="n">
+    <row r="449">
+      <c r="A449" t="str">
         <v>1.39</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" t="n">
+    <row r="450">
+      <c r="A450" t="str">
         <v>41.12</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" t="n">
+    <row r="451">
+      <c r="A451" t="str">
         <v>2.47</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" t="n">
+    <row r="452">
+      <c r="A452" t="str">
         <v>2.07</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" t="n">
+    <row r="453">
+      <c r="A453" t="str">
         <v>1.48</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" t="n">
+    <row r="454">
+      <c r="A454" t="str">
         <v>3.6</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" t="n">
+    <row r="455">
+      <c r="A455" t="str">
         <v>47.4</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" t="n">
+    <row r="456">
+      <c r="A456" t="str">
         <v>2.54</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" t="n">
+    <row r="457">
+      <c r="A457" t="str">
         <v>1.19</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" t="n">
+    <row r="458">
+      <c r="A458" t="str">
         <v>1.28</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" t="n">
-        <v>8.220000000000001</v>
-      </c>
-    </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" t="str">
+        <v>8.22</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
         <v>2.4</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" t="n">
+    <row r="461">
+      <c r="A461" t="str">
         <v>1.56</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" t="n">
+    <row r="462">
+      <c r="A462" t="str">
         <v>3.53</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" t="n">
+    <row r="463">
+      <c r="A463" t="str">
         <v>61.83</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" t="n">
+    <row r="464">
+      <c r="A464" t="str">
         <v>1.5</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" t="n">
+    <row r="465">
+      <c r="A465" t="str">
         <v>1.81</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" t="n">
+    <row r="466">
+      <c r="A466" t="str">
         <v>8.9</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" t="n">
+    <row r="467">
+      <c r="A467" t="str">
         <v>4.91</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" t="n">
+    <row r="468">
+      <c r="A468" t="str">
         <v>1.39</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" t="n">
+    <row r="469">
+      <c r="A469" t="str">
         <v>2.31</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" t="n">
+    <row r="470">
+      <c r="A470" t="str">
         <v>2.75</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" t="n">
+    <row r="471">
+      <c r="A471" t="str">
         <v>36.12</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" t="n">
+    <row r="472">
+      <c r="A472" t="str">
         <v>1.49</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" t="n">
+    <row r="473">
+      <c r="A473" t="str">
         <v>1.47</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" t="n">
+    <row r="474">
+      <c r="A474" t="str">
         <v>1.89</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" t="n">
+    <row r="475">
+      <c r="A475" t="str">
         <v>1.61</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" t="n">
+    <row r="476">
+      <c r="A476" t="str">
         <v>12.85</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" t="n">
+    <row r="477">
+      <c r="A477" t="str">
         <v>2.75</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" t="n">
+    <row r="478">
+      <c r="A478" t="str">
         <v>1.25</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" t="n">
+    <row r="479">
+      <c r="A479" t="str">
         <v>3.13</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" t="n">
+    <row r="480">
+      <c r="A480" t="str">
         <v>7.19</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" t="n">
+    <row r="481">
+      <c r="A481" t="str">
         <v>1.46</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" t="n">
+    <row r="482">
+      <c r="A482" t="str">
         <v>3.28</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" t="n">
+    <row r="483">
+      <c r="A483" t="str">
         <v>1.77</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" t="n">
+    <row r="484">
+      <c r="A484" t="str">
         <v>1.98</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" t="n">
+    <row r="485">
+      <c r="A485" t="str">
         <v>12.09</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" t="n">
-        <v>8.039999999999999</v>
-      </c>
-    </row>
     <row r="486">
-      <c r="A486" t="n">
+      <c r="A486" t="str">
+        <v>8.04</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
         <v>2.14</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" t="n">
+    <row r="488">
+      <c r="A488" t="str">
         <v>2.02</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" t="n">
+    <row r="489">
+      <c r="A489" t="str">
         <v>2.86</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" t="n">
+    <row r="490">
+      <c r="A490" t="str">
         <v>5.98</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" t="n">
+    <row r="491">
+      <c r="A491" t="str">
         <v>2.1</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" t="n">
+    <row r="492">
+      <c r="A492" t="str">
         <v>13.6</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" t="n">
+    <row r="493">
+      <c r="A493" t="str">
         <v>8.27</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" t="n">
+    <row r="494">
+      <c r="A494" t="str">
         <v>1.13</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" t="n">
+    <row r="495">
+      <c r="A495" t="str">
         <v>1.2</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" t="n">
+    <row r="496">
+      <c r="A496" t="str">
         <v>1.4</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" t="n">
+    <row r="497">
+      <c r="A497" t="str">
         <v>2.51</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" t="n">
+    <row r="498">
+      <c r="A498" t="str">
         <v>12.47</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" t="n">
+    <row r="499">
+      <c r="A499" t="str">
         <v>1.32</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" t="n">
+    <row r="500">
+      <c r="A500" t="str">
         <v>1.22</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" t="n">
+    <row r="501">
+      <c r="A501" t="str">
         <v>1.08</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" t="n">
+    <row r="502">
+      <c r="A502" t="str">
         <v>1.65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:A502"/>
+  </ignoredErrors>
 </worksheet>
 </file>